--- a/TEMP-开发任务检查表.xlsx
+++ b/TEMP-开发任务检查表.xlsx
@@ -168,10 +168,10 @@
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="000000"/>
     <numFmt numFmtId="177" formatCode="0_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -252,39 +252,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -296,19 +268,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -327,8 +290,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -343,9 +314,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -353,7 +330,30 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -422,25 +422,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -452,7 +542,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -464,19 +566,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -488,90 +578,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -591,12 +597,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -625,17 +625,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -655,11 +649,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -726,55 +726,55 @@
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="2"/>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="4"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3"/>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="3"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5"/>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="6"/>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="2"/>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="7"/>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5"/>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="6"/>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="4"/>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="7"/>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="8"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="9"/>
-    <xf numFmtId="0" fontId="30" fillId="29" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0"/>
+    <xf numFmtId="0" fontId="30" fillId="27" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="34" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -791,19 +791,16 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1278,200 +1275,200 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="37" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="39"/>
+      <c r="C2" s="38"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="39"/>
+      <c r="C3" s="38"/>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="39"/>
+      <c r="C4" s="38"/>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="39"/>
+      <c r="C5" s="38"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="39"/>
+      <c r="C6" s="38"/>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="39" t="s">
+      <c r="B7" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="39"/>
+      <c r="C7" s="38"/>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="39" t="s">
+      <c r="B8" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="39"/>
+      <c r="C8" s="38"/>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="39" t="s">
+      <c r="A9" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="39" t="s">
+      <c r="B9" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="39"/>
+      <c r="C9" s="38"/>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="39" t="s">
+      <c r="A10" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="39" t="s">
+      <c r="B10" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="39"/>
+      <c r="C10" s="38"/>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="39" t="s">
+      <c r="B11" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="39"/>
+      <c r="C11" s="38"/>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="39" t="s">
+      <c r="A12" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="39" t="s">
+      <c r="B12" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="39"/>
+      <c r="C12" s="38"/>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="39" t="s">
+      <c r="A13" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="39" t="s">
+      <c r="B13" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="39"/>
+      <c r="C13" s="38"/>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="39" t="s">
+      <c r="A14" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="39" t="s">
+      <c r="B14" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="39"/>
+      <c r="C14" s="38"/>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="39" t="s">
+      <c r="A15" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="39" t="s">
+      <c r="B15" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="39"/>
+      <c r="C15" s="38"/>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="39" t="s">
+      <c r="A16" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="39" t="s">
+      <c r="B16" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="39"/>
+      <c r="C16" s="38"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="39" t="s">
+      <c r="A17" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="39" t="s">
+      <c r="B17" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="39"/>
+      <c r="C17" s="38"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="39" t="s">
+      <c r="A18" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="39" t="s">
+      <c r="B18" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="39"/>
+      <c r="C18" s="38"/>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="39" t="s">
+      <c r="A19" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="39" t="s">
+      <c r="B19" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="39"/>
+      <c r="C19" s="38"/>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="39" t="s">
+      <c r="A20" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="39" t="s">
+      <c r="B20" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="39"/>
+      <c r="C20" s="38"/>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="39" t="s">
+      <c r="A21" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="39" t="s">
+      <c r="B21" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="39"/>
+      <c r="C21" s="38"/>
     </row>
     <row r="22" ht="9" customHeight="1" spans="1:3">
-      <c r="A22" s="39"/>
-      <c r="B22" s="39"/>
-      <c r="C22" s="39"/>
+      <c r="A22" s="38"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="38"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -1492,402 +1489,402 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
+      <selection pane="bottomLeft" activeCell="D1" sqref="D$1:D$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="6.625" style="24" customWidth="1"/>
-    <col min="2" max="2" width="23.75" style="24" customWidth="1"/>
-    <col min="3" max="3" width="56.75" style="24" customWidth="1"/>
-    <col min="4" max="4" width="10.25" style="24" customWidth="1"/>
-    <col min="5" max="5" width="17.5" style="25" customWidth="1"/>
-    <col min="6" max="6" width="14.375" style="26" customWidth="1"/>
-    <col min="7" max="7" width="9.5" style="24" customWidth="1"/>
-    <col min="8" max="8" width="11.75" style="24" customWidth="1"/>
-    <col min="9" max="9" width="11.5" style="24" customWidth="1"/>
-    <col min="10" max="10" width="61.25" style="24" customWidth="1"/>
+    <col min="1" max="1" width="6.625" style="23" customWidth="1"/>
+    <col min="2" max="2" width="23.75" style="23" customWidth="1"/>
+    <col min="3" max="3" width="56.75" style="23" customWidth="1"/>
+    <col min="4" max="4" width="10.25" style="23" customWidth="1"/>
+    <col min="5" max="5" width="17.5" style="24" customWidth="1"/>
+    <col min="6" max="6" width="14.375" style="25" customWidth="1"/>
+    <col min="7" max="7" width="9.5" style="23" customWidth="1"/>
+    <col min="8" max="8" width="11.75" style="23" customWidth="1"/>
+    <col min="9" max="9" width="11.5" style="23" customWidth="1"/>
+    <col min="10" max="10" width="61.25" style="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="23" customFormat="1" spans="1:10">
-      <c r="A1" s="27" t="s">
+    <row r="1" s="22" customFormat="1" spans="1:10">
+      <c r="A1" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="H1" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="27" t="s">
+      <c r="I1" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="27" t="s">
+      <c r="J1" s="26" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="30"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="29"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="30"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="30"/>
+      <c r="A3" s="29"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="29"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="30"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="30"/>
+      <c r="A4" s="29"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="29"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="30"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="30"/>
+      <c r="A5" s="29"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="29"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="30"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="30"/>
+      <c r="A6" s="29"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="29"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="30"/>
-      <c r="B7" s="30"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="30"/>
+      <c r="A7" s="29"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="29"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="30"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="30"/>
+      <c r="A8" s="29"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="29"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="30"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="30"/>
+      <c r="A9" s="29"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="29"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="30"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="30"/>
+      <c r="A10" s="29"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="29"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="30"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="30"/>
+      <c r="A11" s="29"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="29"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="30"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="30"/>
+      <c r="A12" s="29"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="29"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="30"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="30"/>
+      <c r="A13" s="29"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="29"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="30"/>
-      <c r="B14" s="30"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="30"/>
+      <c r="A14" s="29"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="29"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="30"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="30"/>
+      <c r="A15" s="29"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="29"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="30"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="30"/>
+      <c r="A16" s="29"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="29"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="30"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="30"/>
+      <c r="A17" s="29"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="29"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="30"/>
-      <c r="B18" s="30"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="30"/>
+      <c r="A18" s="29"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="29"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="30"/>
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="30"/>
+      <c r="A19" s="29"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="29"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="30"/>
-      <c r="B20" s="30"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="30"/>
+      <c r="A20" s="29"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="29"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="30"/>
-      <c r="B21" s="30"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="35"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="30"/>
+      <c r="A21" s="29"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="29"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="30"/>
-      <c r="B22" s="30"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="35"/>
-      <c r="I22" s="36"/>
-      <c r="J22" s="30"/>
+      <c r="A22" s="29"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="29"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="30"/>
-      <c r="B23" s="30"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="35"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="30"/>
+      <c r="A23" s="29"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="29"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="30"/>
-      <c r="B24" s="30"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="35"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="30"/>
+      <c r="A24" s="29"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="35"/>
+      <c r="J24" s="29"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="30"/>
-      <c r="B25" s="30"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="35"/>
-      <c r="I25" s="36"/>
-      <c r="J25" s="30"/>
+      <c r="A25" s="29"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="35"/>
+      <c r="J25" s="29"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="30"/>
-      <c r="B26" s="30"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="35"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="30"/>
+      <c r="A26" s="29"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="29"/>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="30"/>
-      <c r="B27" s="30"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="35"/>
-      <c r="I27" s="36"/>
-      <c r="J27" s="30"/>
+      <c r="A27" s="29"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="29"/>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="30"/>
-      <c r="B28" s="30"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="35"/>
-      <c r="I28" s="36"/>
-      <c r="J28" s="30"/>
+      <c r="A28" s="29"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="29"/>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="30"/>
-      <c r="B29" s="30"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="36"/>
-      <c r="H29" s="35"/>
-      <c r="I29" s="36"/>
-      <c r="J29" s="30"/>
+      <c r="A29" s="29"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="34"/>
+      <c r="I29" s="35"/>
+      <c r="J29" s="29"/>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="30"/>
-      <c r="B30" s="30"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="36"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="36"/>
-      <c r="H30" s="35"/>
-      <c r="I30" s="36"/>
-      <c r="J30" s="30"/>
+      <c r="A30" s="29"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="34"/>
+      <c r="I30" s="35"/>
+      <c r="J30" s="29"/>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
@@ -1950,7 +1947,7 @@
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1982,7 +1979,7 @@
       <c r="E1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="10" t="s">
         <v>31</v>
       </c>
       <c r="G1" s="3" t="s">
@@ -1999,364 +1996,364 @@
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="12"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="11"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="12"/>
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="11"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="12"/>
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="11"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="12"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="12"/>
+      <c r="A5" s="11"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="11"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="12"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="12"/>
+      <c r="A6" s="11"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="11"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="12"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="11"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="12"/>
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="11"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="12"/>
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="11"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="12"/>
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="11"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="12"/>
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="11"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="12"/>
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="11"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="12"/>
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="11"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="12"/>
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="11"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="12"/>
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="11"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="12"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="12"/>
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="11"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="12"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="12"/>
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="11"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="12"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="12"/>
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="11"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="12"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="12"/>
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="11"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="12"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="12"/>
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="11"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="12"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="12"/>
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="11"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="12"/>
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="11"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="12"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="12"/>
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="11"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="12"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="12"/>
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="11"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="12"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="12"/>
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="11"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="12"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="12"/>
+      <c r="A26" s="11"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="11"/>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="12"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="20"/>
-      <c r="J27" s="12"/>
+      <c r="A27" s="11"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="11"/>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="12"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="12"/>
+      <c r="A28" s="11"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="11"/>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="12"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="20"/>
-      <c r="J29" s="12"/>
+      <c r="A29" s="11"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="11"/>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="12"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="20"/>
-      <c r="J30" s="12"/>
+      <c r="A30" s="11"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="11"/>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="12"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="22"/>
-      <c r="I31" s="20"/>
-      <c r="J31" s="12"/>
+      <c r="A31" s="11"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="11"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="G7:G31">
@@ -2454,7 +2451,7 @@
       <c r="H1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2463,10 +2460,10 @@
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
       <c r="I2" s="4"/>
     </row>
     <row r="3" spans="1:9">
@@ -2474,10 +2471,10 @@
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
       <c r="I3" s="4"/>
     </row>
     <row r="4" spans="1:9">
@@ -2485,10 +2482,10 @@
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
       <c r="I4" s="4"/>
     </row>
     <row r="5" spans="1:9">
@@ -2496,10 +2493,10 @@
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
       <c r="I5" s="4"/>
     </row>
     <row r="6" spans="1:9">
@@ -2507,10 +2504,10 @@
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
       <c r="I6" s="4"/>
     </row>
     <row r="7" spans="1:9">
@@ -2518,10 +2515,10 @@
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
       <c r="I7" s="4"/>
     </row>
     <row r="8" spans="1:9">
@@ -2529,10 +2526,10 @@
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
       <c r="I8" s="4"/>
     </row>
     <row r="9" spans="1:9">
@@ -2540,10 +2537,10 @@
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
       <c r="I9" s="4"/>
     </row>
     <row r="10" spans="1:9">
@@ -2551,10 +2548,10 @@
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
       <c r="I10" s="4"/>
     </row>
     <row r="11" spans="1:9">
@@ -2562,10 +2559,10 @@
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
       <c r="I11" s="4"/>
     </row>
     <row r="12" spans="1:9">
@@ -2573,10 +2570,10 @@
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
       <c r="I12" s="4"/>
     </row>
     <row r="13" spans="1:9">
@@ -2584,10 +2581,10 @@
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
       <c r="I13" s="4"/>
     </row>
     <row r="14" spans="1:9">
@@ -2595,10 +2592,10 @@
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
       <c r="I14" s="4"/>
     </row>
     <row r="15" spans="1:9">
@@ -2606,187 +2603,187 @@
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
       <c r="I15" s="4"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="9"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="9"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="9"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="9"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="9"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="9"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E2:H15">
@@ -2813,7 +2810,7 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2872,7 +2869,7 @@
     <row r="5" spans="1:6">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
-      <c r="C5" s="7"/>
+      <c r="C5" s="5"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="4"/>
@@ -2888,7 +2885,7 @@
     <row r="7" spans="1:6">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
-      <c r="C7" s="8"/>
+      <c r="C7" s="5"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="4"/>
@@ -2896,7 +2893,7 @@
     <row r="8" spans="1:6">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
-      <c r="C8" s="8"/>
+      <c r="C8" s="5"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="4"/>
@@ -2904,7 +2901,7 @@
     <row r="9" spans="1:6">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
-      <c r="C9" s="8"/>
+      <c r="C9" s="5"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="4"/>
@@ -2912,7 +2909,7 @@
     <row r="10" spans="1:6">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
-      <c r="C10" s="8"/>
+      <c r="C10" s="5"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="4"/>
@@ -2920,7 +2917,7 @@
     <row r="11" spans="1:6">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
-      <c r="C11" s="8"/>
+      <c r="C11" s="5"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" s="4"/>
@@ -2928,7 +2925,7 @@
     <row r="12" spans="1:6">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
-      <c r="C12" s="8"/>
+      <c r="C12" s="5"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="4"/>
@@ -2936,7 +2933,7 @@
     <row r="13" spans="1:6">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
-      <c r="C13" s="8"/>
+      <c r="C13" s="5"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="4"/>
@@ -2944,7 +2941,7 @@
     <row r="14" spans="1:6">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
-      <c r="C14" s="8"/>
+      <c r="C14" s="5"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="4"/>
@@ -2952,7 +2949,7 @@
     <row r="15" spans="1:6">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
-      <c r="C15" s="8"/>
+      <c r="C15" s="5"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="4"/>
@@ -2960,130 +2957,130 @@
     <row r="16" spans="1:6">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
-      <c r="C16" s="8"/>
+      <c r="C16" s="5"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="4"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="9"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="9"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="9"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="9"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="9"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="9"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D2:E16">

--- a/TEMP-开发任务检查表.xlsx
+++ b/TEMP-开发任务检查表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13200" activeTab="4"/>
+    <workbookView windowWidth="28695" windowHeight="13200"/>
   </bookViews>
   <sheets>
     <sheet name="统计目标" sheetId="3" r:id="rId1"/>
@@ -53,7 +53,7 @@
     <t>朱润</t>
   </si>
   <si>
-    <t>邹璇璇</t>
+    <t>邹旋旋</t>
   </si>
   <si>
     <t>高一正</t>
@@ -162,12 +162,12 @@
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="000000"/>
     <numFmt numFmtId="177" formatCode="0_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="0"/>
@@ -214,8 +214,37 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="9.75"/>
+      <color rgb="FF141414"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -229,14 +258,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -244,8 +266,84 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -259,104 +357,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -391,13 +397,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -409,163 +559,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -598,6 +604,35 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -633,15 +668,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -671,77 +697,57 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="4"/>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="7"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6"/>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3"/>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5"/>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="6"/>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="4"/>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="7"/>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9"/>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2"/>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="8"/>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="7"/>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="9"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5"/>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -808,7 +814,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -819,6 +824,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1196,8 +1202,8 @@
   <sheetPr/>
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1208,200 +1214,200 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="28" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="30"/>
+      <c r="C2" s="29"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="30"/>
+      <c r="C3" s="29"/>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="30"/>
+      <c r="C4" s="29"/>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="30"/>
+      <c r="C5" s="29"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="30"/>
+      <c r="C6" s="29"/>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="30"/>
+      <c r="C7" s="29"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="30"/>
+      <c r="C8" s="29"/>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="30"/>
+      <c r="C9" s="29"/>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="30"/>
+      <c r="C10" s="29"/>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="30"/>
+      <c r="C11" s="29"/>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="30"/>
+      <c r="C12" s="29"/>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="30" t="s">
+      <c r="A13" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="30"/>
+      <c r="C13" s="29"/>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="30" t="s">
+      <c r="A14" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="30"/>
+      <c r="C14" s="29"/>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="30" t="s">
+      <c r="A15" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="30" t="s">
+      <c r="B15" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="30"/>
+      <c r="C15" s="29"/>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="30" t="s">
+      <c r="A16" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="30"/>
+      <c r="C16" s="29"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="30" t="s">
+      <c r="A17" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="30"/>
+      <c r="C17" s="29"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="30" t="s">
+      <c r="A18" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="30"/>
+      <c r="C18" s="29"/>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="30" t="s">
+      <c r="A19" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="30" t="s">
+      <c r="B19" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="30"/>
+      <c r="C19" s="29"/>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="30" t="s">
+      <c r="A20" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="30" t="s">
+      <c r="B20" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="30"/>
+      <c r="C20" s="29"/>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="30" t="s">
+      <c r="A21" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="30" t="s">
+      <c r="B21" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="30"/>
+      <c r="C21" s="29"/>
     </row>
     <row r="22" ht="9" customHeight="1" spans="1:3">
-      <c r="A22" s="30"/>
-      <c r="B22" s="30"/>
-      <c r="C22" s="30"/>
+      <c r="A22" s="29"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -1476,24 +1482,24 @@
       <c r="A2" s="23"/>
       <c r="B2" s="23"/>
       <c r="C2" s="23"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="26"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="25"/>
       <c r="G2" s="14"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="28"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="27"/>
       <c r="J2" s="23"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="23"/>
       <c r="B3" s="23"/>
       <c r="C3" s="23"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="26"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="25"/>
       <c r="G3" s="14"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="28"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="27"/>
       <c r="J3" s="23"/>
     </row>
     <row r="4" spans="1:10">
@@ -2178,7 +2184,7 @@
   <sheetPr/>
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>

--- a/TEMP-开发任务检查表.xlsx
+++ b/TEMP-开发任务检查表.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43">
   <si>
     <t>用户</t>
   </si>
@@ -65,9 +65,6 @@
     <t>赵昊</t>
   </si>
   <si>
-    <t>李东升</t>
-  </si>
-  <si>
     <t>沈啸龙</t>
   </si>
   <si>
@@ -83,15 +80,12 @@
     <t>杨柏彬</t>
   </si>
   <si>
-    <t>曹涛</t>
+    <t>陈琪</t>
   </si>
   <si>
     <t>测试</t>
   </si>
   <si>
-    <t>陈琪</t>
-  </si>
-  <si>
     <t>胡力</t>
   </si>
   <si>
@@ -99,6 +93,9 @@
   </si>
   <si>
     <t>张小芳</t>
+  </si>
+  <si>
+    <t>吴章林</t>
   </si>
   <si>
     <t>序号</t>
@@ -160,12 +157,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="000000"/>
     <numFmt numFmtId="177" formatCode="0_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -222,6 +219,37 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -244,7 +272,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -267,43 +310,30 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -317,52 +347,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -397,181 +394,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -600,20 +597,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -627,13 +621,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -653,6 +651,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -668,32 +686,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -701,53 +698,53 @@
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="7"/>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="8"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6"/>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2"/>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="8"/>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="7"/>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="9"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7"/>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="4"/>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="8"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="2"/>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6"/>
+    <xf numFmtId="0" fontId="27" fillId="34" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5"/>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1200,10 +1197,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M34" sqref="M34"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1355,16 +1352,16 @@
         <v>19</v>
       </c>
       <c r="B16" s="29" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C16" s="29"/>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="29" t="s">
         <v>20</v>
-      </c>
-      <c r="B17" s="29" t="s">
-        <v>21</v>
       </c>
       <c r="C17" s="29"/>
     </row>
@@ -1373,7 +1370,7 @@
         <v>22</v>
       </c>
       <c r="B18" s="29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C18" s="29"/>
     </row>
@@ -1382,7 +1379,7 @@
         <v>23</v>
       </c>
       <c r="B19" s="29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C19" s="29"/>
     </row>
@@ -1391,27 +1388,18 @@
         <v>24</v>
       </c>
       <c r="B20" s="29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C20" s="29"/>
     </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="29" t="s">
-        <v>21</v>
-      </c>
+    <row r="21" ht="9" customHeight="1" spans="1:3">
+      <c r="A21" s="29"/>
+      <c r="B21" s="29"/>
       <c r="C21" s="29"/>
-    </row>
-    <row r="22" ht="9" customHeight="1" spans="1:3">
-      <c r="A22" s="29"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B8 B9:B16 B17:B21">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20 B2:B8 B9:B10 B11:B15 B16:B19">
       <formula1>"开发/C++,开发/Java,测试"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1448,31 +1436,31 @@
   <sheetData>
     <row r="1" s="16" customFormat="1" spans="1:10">
       <c r="A1" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="C1" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="D1" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="E1" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="F1" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="G1" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="H1" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="I1" s="20" t="s">
         <v>33</v>
-      </c>
-      <c r="I1" s="20" t="s">
-        <v>34</v>
       </c>
       <c r="J1" s="20" t="s">
         <v>2</v>
@@ -2013,31 +2001,31 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:10">
       <c r="A1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>33</v>
-      </c>
       <c r="I1" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>2</v>
@@ -2111,28 +2099,28 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:9">
       <c r="A1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="C1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>41</v>
       </c>
       <c r="I1" s="8" t="s">
         <v>2</v>
@@ -2201,19 +2189,19 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:6">
       <c r="A1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="C1" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>2</v>
